--- a/trend_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
+++ b/trend_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.216737091579754</v>
+        <v>0.783262908420246</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.619836256525509</v>
+        <v>0.380163743474491</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.467333635252697</v>
+        <v>0.532666364747303</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.950914342427403</v>
+        <v>0.049085657572597</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.000571536472819</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0263157894736842</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.552631578947368</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0462975334018499</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0808892315896244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.0232232045848477</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-4.67651852543939</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.06762356656389799</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.815028901734104</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0318738666381095</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0580700127259397</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0012693226108655</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.305597954344291</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Very unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.989292051207633</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0517241379310345</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.201149425287356</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.0003821606068532</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0006754507628294</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-8.6265197351427e-05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-2.01137161501714</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0900519298738998</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.76878612716763</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>231</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.27865447406827</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-1.19795745144577</v>
+      </c>
+      <c r="M31" t="n">
+        <v>15.4921825073279</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.71803223985639</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0778443113772455</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.922155688622755</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0585894415061386</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.001606991730731</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0016371954904114</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0137262343396014</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.256578947368421</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0004160970608339</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0006674658862938</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.61823531159916</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.528175735469869</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0064516129032258</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.92258064516129</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0002154169158692</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0082711929516126</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.005965782547806</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.0486268433113361</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.975323843195663</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.560693641618497</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0144796872439808</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0023132042958751</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0267582417582415</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.18829242189832</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.73995333614716</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.839080459770115</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0034536056049214</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0100336393925554</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0043793052931348</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.616715286593107</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6839674916876179</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.637931034482759</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0028624485342173</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0100064473264144</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0049850682937276</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.351220679045071</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.227030187331652</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.511494252873563</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.000332347588717</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0004012604000379</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0011609235451093</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.678260385136767</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.493983667464367</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.965317919075145</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.001543690985844</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.125148965853488</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.192357227353302</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0209456036071105</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
+++ b/trend_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.673165352234444</v>
+        <v>0.067307597631394</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H2" t="n">
-        <v>0.73469387755102</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0071598415682062</v>
+        <v>-0.0508827983040581</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0471298663885017</v>
+        <v>-0.188495449797039</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0695714285714286</v>
+        <v>0.0002419319513879</v>
       </c>
       <c r="N2" t="n">
-        <v>2.23745049006445</v>
+        <v>-14.537942372588</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.783262908420246</v>
+        <v>0.216737091579754</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.927272727272727</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.6</v>
+        <v>10.52</v>
       </c>
       <c r="K3" t="n">
-        <v>0.123756868131868</v>
+        <v>-0.0652232142857147</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0752577689518746</v>
+        <v>-0.175577787604405</v>
       </c>
       <c r="M3" t="n">
-        <v>0.278286149432914</v>
+        <v>0.0869644283854987</v>
       </c>
       <c r="N3" t="n">
-        <v>1.16751762388555</v>
+        <v>-0.619992531233029</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.712216099858583</v>
+        <v>0.270769256346986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0727272727272727</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.490909090909091</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0.018</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.000469473007712</v>
+        <v>0.0004969387755102</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0020131839047392</v>
+        <v>-0.000874572180484</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0011372354377456</v>
+        <v>0.0019404818913361</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.60818337617824</v>
+        <v>2.76077097505669</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.591863810834209</v>
+        <v>0.6197913428788711</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.890909090909091</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.1862549800797</v>
+        <v>-9.77257525083612</v>
       </c>
       <c r="L5" t="n">
-        <v>-106.858062995451</v>
+        <v>-74.29773489189721</v>
       </c>
       <c r="M5" t="n">
-        <v>64.9189531480348</v>
+        <v>34.9844955797665</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.31505795001811</v>
+        <v>-3.0069462310265</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.98265075820684</v>
+        <v>0.986421073432484</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07240846513483309</v>
+        <v>0.0687880418780915</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0118033652302483</v>
+        <v>-0.0133299270495484</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.024363239949524</v>
+        <v>-0.0239356032271773</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0026171569041896</v>
+        <v>-0.0035563548087592</v>
       </c>
       <c r="N6" t="n">
-        <v>-16.3010846981345</v>
+        <v>-19.378262101387</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1020,39 +1020,39 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.997519428951245</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0181818181818182</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.436363636363636</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.885615431236349</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.472727272727273</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0005017170329669999</v>
+        <v>-0.0017379064234734</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001501569343298</v>
+        <v>-0.0027854710423539</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.0006231648879845</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.56106393606394</v>
+        <v>-17.3790642347343</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0169474267623446</v>
+        <v>0.06774726347332261</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.402</v>
+        <v>0.42</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0392170154686078</v>
+        <v>0.035996609403255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009101866286548001</v>
+        <v>-0.0038111401177751</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0580802868421606</v>
+        <v>0.0561625823775277</v>
       </c>
       <c r="N8" t="n">
-        <v>9.755476484728311</v>
+        <v>8.570621286489279</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.380163743474491</v>
+        <v>0.222772937969095</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.763636363636364</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.69</v>
+        <v>7.72</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0100343406593404</v>
+        <v>-0.0189740259740261</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0601377342190966</v>
+        <v>-0.0599310292081358</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0353060057235602</v>
+        <v>0.0199920949331878</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.130485574243699</v>
+        <v>-0.245777538523655</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.31919313040914</v>
+        <v>0.622975212642385</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.963636363636364</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.54</v>
+        <v>0.581</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0127325700615174</v>
+        <v>-0.0130267489711934</v>
       </c>
       <c r="L10" t="n">
         <v>-0.0386323357169409</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0481259755171936</v>
+        <v>0.0410336866321638</v>
       </c>
       <c r="N10" t="n">
-        <v>2.35788334472545</v>
+        <v>-2.24212546836376</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.823907044803298</v>
+        <v>0.0424286233030574</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0727272727272727</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.690909090909091</v>
+        <v>0.745454545454545</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19</v>
+        <v>0.82</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.11018237082067</v>
+        <v>0.0447244897959184</v>
       </c>
       <c r="L11" t="n">
-        <v>-7.38219612460058</v>
+        <v>0.0033232276332592</v>
       </c>
       <c r="M11" t="n">
-        <v>2.00686813186813</v>
+        <v>0.09030915399428829</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.84306510958247</v>
+        <v>5.45420607267297</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.266140137664225</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.763636363636364</v>
+        <v>0.8</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.82</v>
+        <v>0.054</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0100343406593407</v>
+        <v>0.0017392857142857</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08027472527472521</v>
+        <v>-0.0039235727780974</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0447247221461795</v>
+        <v>0.0081941951089811</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.2237000804074</v>
+        <v>3.22089947089947</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.696906005207042</v>
+        <v>0.187886755640862</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.872727272727273</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.059</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0019445430346051</v>
+        <v>0.668956043956044</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0106495341240762</v>
+        <v>-0.637138980095148</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0052069611529845</v>
+        <v>2.69597881730471</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.29583565187313</v>
+        <v>6.82608208118412</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8310467173455141</v>
+        <v>0.0004808024467409</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="H14" t="n">
-        <v>0.963636363636364</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>12.2</v>
+        <v>0.495</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.589112903225807</v>
+        <v>-0.0825927749763631</v>
       </c>
       <c r="L14" t="n">
-        <v>-4.94281974351411</v>
+        <v>-0.130313811756635</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7614143830893469</v>
+        <v>-0.0373272439410338</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.82879428873612</v>
+        <v>-16.685409086134</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.87119472339925e-05</v>
+        <v>0.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0188679245283019</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6698113207547171</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.126471606648199</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.181469812139203</v>
+        <v>-0.0427795194162359</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0688613100781168</v>
+        <v>0.0380882506711504</v>
       </c>
       <c r="N15" t="n">
-        <v>-14.0524007386888</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.373806016235758</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0521739130434783</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.295652173913043</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.532666364747303</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.860869565217391</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.29</v>
+        <v>0.018</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0026719796008588</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0550343121807186</v>
+        <v>-0.0004141156462585</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0549334345752961</v>
+        <v>0.0006118791112494</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0259667599694738</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.203928945346696</v>
+        <v>0.0293293105707281</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0608695652173913</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.28695652173913</v>
+        <v>0.780701754385965</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.018</v>
+        <v>235.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002350386100386</v>
+        <v>13.2939035486806</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0002323294082943</v>
+        <v>1.60056783673935</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000763972657321</v>
+        <v>33.5129567492618</v>
       </c>
       <c r="N17" t="n">
-        <v>1.30577005577006</v>
+        <v>5.64496965973699</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0026584296289769</v>
+        <v>0.209760295562662</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.110091743119266</v>
       </c>
       <c r="H18" t="n">
-        <v>0.789473684210526</v>
+        <v>0.889908256880734</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>250.5</v>
+        <v>0.0520235107878972</v>
       </c>
       <c r="K18" t="n">
-        <v>27.0927197802198</v>
+        <v>0.0011718158144606</v>
       </c>
       <c r="L18" t="n">
-        <v>9.140059335728729</v>
+        <v>-0.0012101395046613</v>
       </c>
       <c r="M18" t="n">
-        <v>45.7891683363973</v>
+        <v>0.0037713432076086</v>
       </c>
       <c r="N18" t="n">
-        <v>10.8154569980917</v>
+        <v>2.25247353881636</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.226006191932306</v>
+        <v>0.983172805569394</v>
       </c>
       <c r="G19" t="n">
-        <v>0.100917431192661</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8990825688073391</v>
+        <v>0.31304347826087</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0548327570943143</v>
+        <v>0.012</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0012201472313191</v>
+        <v>-0.0004993279042386001</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0015207179317297</v>
+        <v>-0.0008531854974008</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0044850205217594</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.22521590373509</v>
+        <v>-4.16106586865515</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.892366178602892</v>
+        <v>0.191041516598628</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.321739130434783</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.013</v>
+        <v>0.436</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0002854634638431</v>
+        <v>0.0050881726955827</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.000668667848178</v>
+        <v>-0.0049940382050651</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0145684459922321</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.1958727987936</v>
+        <v>1.16701208614283</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.04022081576301</v>
+        <v>0.253820367166759</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.947826086956522</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.402</v>
+        <v>7.71</v>
       </c>
       <c r="K21" t="n">
-        <v>0.008904877997761801</v>
+        <v>-0.0052572867938107</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003867775076462</v>
+        <v>-0.0202007790524784</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0151269625489297</v>
+        <v>0.008315930213645999</v>
       </c>
       <c r="N21" t="n">
-        <v>2.21514378053776</v>
+        <v>-0.0681878961583752</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.049085657572597</v>
+        <v>0.222193361132969</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.72</v>
+        <v>0.57</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0168317972350229</v>
+        <v>0.0068441924549855</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0337498345221725</v>
+        <v>-0.0070555733863539</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0178409040918035</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.218028461593561</v>
+        <v>1.20073551841852</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0451801380190733</v>
+        <v>0.0064494369675408</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.852173913043478</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.533</v>
+        <v>0.82</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0134704295345459</v>
+        <v>0.0181896697628553</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002228516049858</v>
+        <v>0.0050155950569857</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0236777915187932</v>
+        <v>0.0294747262141797</v>
       </c>
       <c r="N23" t="n">
-        <v>2.52728509090918</v>
+        <v>2.21825241010431</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0034482653470122</v>
+        <v>0.0373885100141737</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0521739130434783</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5043478260869561</v>
+        <v>0.634782608695652</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11</v>
+        <v>0.049</v>
       </c>
       <c r="K24" t="n">
-        <v>0.996255248510888</v>
+        <v>0.0017992610837438</v>
       </c>
       <c r="L24" t="n">
-        <v>0.173203344726574</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.31300912589694</v>
+        <v>0.0036083754900147</v>
       </c>
       <c r="N24" t="n">
-        <v>9.05686589555352</v>
+        <v>3.6719613953956</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0031333295672531</v>
+        <v>0.0055536730349822</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.730434782608696</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8</v>
+        <v>8.59</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0171625915169779</v>
+        <v>0.841468285004469</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0052003901250828</v>
+        <v>0.122680593024859</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0262824063732344</v>
+        <v>1.80258574927168</v>
       </c>
       <c r="N25" t="n">
-        <v>2.14532393962224</v>
+        <v>9.795905529737709</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0040853499448174</v>
+        <v>7.62957399036424e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0133333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0.617391304347826</v>
+        <v>0.58</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.049</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0026437142857142</v>
+        <v>-0.0733500684618896</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0009970427661509999</v>
+        <v>-0.107915944038426</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0046539163398046</v>
+        <v>-0.0461897960510026</v>
       </c>
       <c r="N26" t="n">
-        <v>5.39533527696793</v>
+        <v>-8.150007606876621</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.06658232125794369</v>
+        <v>0.020074072614254</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.956521739130435</v>
+        <v>0.826589595375723</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.37</v>
+        <v>10.37</v>
       </c>
       <c r="K27" t="n">
-        <v>0.264691571821036</v>
+        <v>-0.0347857142857144</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0148258275874019</v>
+        <v>-0.0589649930199437</v>
       </c>
       <c r="M27" t="n">
-        <v>1.3164871431666</v>
+        <v>-0.0074419034582574</v>
       </c>
       <c r="N27" t="n">
-        <v>3.59147315903712</v>
+        <v>-0.335445653671306</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.000571536472819</v>
+        <v>0.657559790551055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0263157894736842</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H28" t="n">
-        <v>0.552631578947368</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.99</v>
+        <v>0.019</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0462975334018499</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0808892315896244</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0232232045848477</v>
+        <v>0.0001425844026632</v>
       </c>
       <c r="N28" t="n">
-        <v>-4.67651852543939</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.06762356656389799</v>
+        <v>0.129989405630825</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.815028901734104</v>
+        <v>0.774566473988439</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.43</v>
+        <v>231</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0318738666381095</v>
+        <v>4.71719656032174</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0580700127259397</v>
+        <v>-2.2896777490106</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0012693226108655</v>
+        <v>12.5638697936484</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.305597954344291</v>
+        <v>2.04207643303971</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.989292051207633</v>
+        <v>0.295004349602933</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0517241379310345</v>
+        <v>0.0838323353293413</v>
       </c>
       <c r="H30" t="n">
-        <v>0.201149425287356</v>
+        <v>0.916167664670659</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.019</v>
+        <v>0.0562517629515717</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0003821606068532</v>
+        <v>0.0003394276657552</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0006754507628294</v>
+        <v>-0.0010655734935873</v>
       </c>
       <c r="M30" t="n">
-        <v>-8.6265197351427e-05</v>
+        <v>0.0018691453906357</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.01137161501714</v>
+        <v>0.6034080497130681</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0900519298738998</v>
+        <v>0.14243101921373</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0548780487804878</v>
       </c>
       <c r="H31" t="n">
-        <v>0.76878612716763</v>
+        <v>0.23780487804878</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>231</v>
+        <v>0.011</v>
       </c>
       <c r="K31" t="n">
-        <v>6.27865447406827</v>
+        <v>0.0001995356459983</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.19795745144577</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>15.4921825073279</v>
+        <v>0.0004164558540418</v>
       </c>
       <c r="N31" t="n">
-        <v>2.71803223985639</v>
+        <v>1.81396041816692</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.493487325699261</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0778443113772455</v>
+        <v>0.0060975609756097</v>
       </c>
       <c r="H32" t="n">
-        <v>0.922155688622755</v>
+        <v>0.920731707317073</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0585894415061386</v>
+        <v>0.4455</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.22036474164233e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.001606991730731</v>
+        <v>-0.0070151219711238</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0016371954904114</v>
+        <v>0.0056473850545313</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.0049839837073901</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0137262343396014</v>
+        <v>0.970669333998567</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.256578947368421</v>
+        <v>0.5491329479768789</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0115</v>
+        <v>7.69</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0004160970608339</v>
+        <v>0.0130446428571428</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0014455696280805</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0006674658862938</v>
+        <v>0.0239703103582681</v>
       </c>
       <c r="N33" t="n">
-        <v>3.61823531159916</v>
+        <v>0.169631246516812</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.528175735469869</v>
+        <v>0.749563856894327</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0064516129032258</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.92258064516129</v>
+        <v>0.85632183908046</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.443</v>
+        <v>0.5705</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0002154169158692</v>
+        <v>-0.0033341280534751</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0082711929516126</v>
+        <v>-0.0099782853795205</v>
       </c>
       <c r="M34" t="n">
-        <v>0.005965782547806</v>
+        <v>0.0041074318850032</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0486268433113361</v>
+        <v>-0.584422095262961</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3549,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.975323843195663</v>
+        <v>0.511937123148164</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.560693641618497</v>
+        <v>0.64367816091954</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.69</v>
+        <v>0.835</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0144796872439808</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0023132042958751</v>
+        <v>-0.0089963054187192</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0267582417582415</v>
+        <v>0.0066412330744126</v>
       </c>
       <c r="N35" t="n">
-        <v>0.18829242189832</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.73995333614716</v>
+        <v>0.0316484254321635</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.839080459770115</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.048</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0034536056049214</v>
+        <v>0.0008321962385206</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0100336393925554</v>
+        <v>8.56085302859368e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0043793052931348</v>
+        <v>0.0016207644296936</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.616715286593107</v>
+        <v>1.73374216358467</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.6839674916876179</v>
+        <v>0.188797847726258</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.637931034482759</v>
+        <v>0.959770114942529</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8149999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0028624485342173</v>
+        <v>0.102605934361691</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0100064473264144</v>
+        <v>-0.0599417949230566</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0049850682937276</v>
+        <v>0.381275455597257</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.351220679045071</v>
+        <v>1.25435127581529</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Manawatu at ds Fonterra Longburn</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.227030187331652</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.511494252873563</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.000332347588717</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0004012604000379</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0011609235451093</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.678260385136767</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1816787.423</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5524193.555</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_11a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Manawatu at ds Fonterra Longburn</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.493983667464367</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.965317919075145</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.001543690985844</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.125148965853488</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.192357227353302</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.0209456036071105</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1816787.423</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5524193.555</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_11a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
+++ b/trend_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -127,9 +127,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
@@ -145,31 +142,31 @@
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Palmerston North City</t>
@@ -648,38 +645,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.067307597631394</v>
+        <v>0.09330831477064699</v>
       </c>
       <c r="G2">
-        <v>0.0212765957446809</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="H2">
-        <v>0.74468085106383</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="K2">
-        <v>-0.0508827983040581</v>
+        <v>-0.0333942857142857</v>
       </c>
       <c r="L2">
-        <v>-0.188495449797039</v>
+        <v>-0.156381852457901</v>
       </c>
       <c r="M2">
-        <v>0.0002419319513879</v>
+        <v>0.0074893043713148</v>
       </c>
       <c r="N2">
-        <v>-14.537942372588</v>
+        <v>-10.7723502304147</v>
       </c>
       <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
       <c r="Q2">
         <v>1816787.423</v>
       </c>
@@ -687,19 +684,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
         <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,37 +716,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.216737091579754</v>
+        <v>0.13641587816248</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.52</v>
+        <v>10.41</v>
       </c>
       <c r="K3">
-        <v>-0.0652232142857147</v>
+        <v>-0.0424419002050581</v>
       </c>
       <c r="L3">
-        <v>-0.175577787604405</v>
+        <v>-0.105360702096877</v>
       </c>
       <c r="M3">
-        <v>0.0869644283854987</v>
+        <v>0.0265881567781432</v>
       </c>
       <c r="N3">
-        <v>-0.619992531233029</v>
+        <v>-0.407703171998637</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1816787.423</v>
@@ -758,19 +755,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,37 +787,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.270769256346986</v>
+        <v>0.152636717934804</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.509090909090909</v>
+        <v>0.472727272727273</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="K4">
-        <v>0.0004969387755102</v>
+        <v>0.0007334337349397</v>
       </c>
       <c r="L4">
-        <v>-0.000874572180484</v>
+        <v>-0.0004601890843326</v>
       </c>
       <c r="M4">
-        <v>0.0019404818913361</v>
+        <v>0.0019804949552361</v>
       </c>
       <c r="N4">
-        <v>2.76077097505669</v>
+        <v>4.31431608788094</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1816787.423</v>
@@ -829,19 +826,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,37 +858,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.6197913428788711</v>
+        <v>0.985562143075616</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.927272727272727</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="K5">
-        <v>-9.77257525083612</v>
+        <v>-76.0445962732919</v>
       </c>
       <c r="L5">
-        <v>-74.29773489189721</v>
+        <v>-150.289103709598</v>
       </c>
       <c r="M5">
-        <v>34.9844955797665</v>
+        <v>-15.9584473672014</v>
       </c>
       <c r="N5">
-        <v>-3.0069462310265</v>
+        <v>-29.2479216435738</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1816787.423</v>
@@ -900,19 +897,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,7 +929,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.986421073432484</v>
+        <v>0.0511869002031792</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -944,26 +941,26 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0687880418780915</v>
+        <v>0.0555553590976244</v>
       </c>
       <c r="K6">
-        <v>-0.0133299270495484</v>
+        <v>0.0069972429864164</v>
       </c>
       <c r="L6">
-        <v>-0.0239356032271773</v>
+        <v>-0.0002069314271818</v>
       </c>
       <c r="M6">
-        <v>-0.0035563548087592</v>
+        <v>0.0162179002602475</v>
       </c>
       <c r="N6">
-        <v>-19.378262101387</v>
+        <v>12.5950819148169</v>
       </c>
       <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
       <c r="Q6">
         <v>1816787.423</v>
       </c>
@@ -971,19 +968,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,13 +994,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.997519428951245</v>
+        <v>0.999742243255783</v>
       </c>
       <c r="G7">
         <v>0.0181818181818182</v>
@@ -1018,22 +1015,22 @@
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>-0.0017379064234734</v>
+        <v>-0.001337912087912</v>
       </c>
       <c r="L7">
-        <v>-0.0027854710423539</v>
+        <v>-0.002439386446932</v>
       </c>
       <c r="M7">
-        <v>-0.0006231648879845</v>
+        <v>-0.0008288430576591</v>
       </c>
       <c r="N7">
-        <v>-17.3790642347343</v>
+        <v>-13.3791208791209</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1816787.423</v>
@@ -1042,19 +1039,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,37 +1071,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.06774726347332261</v>
+        <v>0.826368787756209</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.963636363636364</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.42</v>
+        <v>0.326</v>
       </c>
       <c r="K8">
-        <v>0.035996609403255</v>
+        <v>-0.0169767600820232</v>
       </c>
       <c r="L8">
-        <v>-0.0038111401177751</v>
+        <v>-0.0403882279011949</v>
       </c>
       <c r="M8">
-        <v>0.0561625823775277</v>
+        <v>0.0167273727843001</v>
       </c>
       <c r="N8">
-        <v>8.570621286489279</v>
+        <v>-5.20759511718504</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1816787.423</v>
@@ -1113,19 +1110,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,37 +1142,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.222772937969095</v>
+        <v>0.6363346572791641</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.709090909090909</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.72</v>
+        <v>7.69</v>
       </c>
       <c r="K9">
-        <v>-0.0189740259740261</v>
+        <v>0.0069263590391907</v>
       </c>
       <c r="L9">
-        <v>-0.0599310292081358</v>
+        <v>-0.0262141877711513</v>
       </c>
       <c r="M9">
-        <v>0.0199920949331878</v>
+        <v>0.0418657381917452</v>
       </c>
       <c r="N9">
-        <v>-0.245777538523655</v>
+        <v>0.0900696884160045</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1816787.423</v>
@@ -1184,16 +1181,16 @@
         <v>5524193.555</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.622975212642385</v>
+        <v>0.86358412183752</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1225,25 +1222,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.581</v>
+        <v>0.52</v>
       </c>
       <c r="K10">
-        <v>-0.0130267489711934</v>
+        <v>-0.0178331826401447</v>
       </c>
       <c r="L10">
-        <v>-0.0386323357169409</v>
+        <v>-0.0398865172787147</v>
       </c>
       <c r="M10">
-        <v>0.0410336866321638</v>
+        <v>0.0107037666308711</v>
       </c>
       <c r="N10">
-        <v>-2.24212546836376</v>
+        <v>-3.42945820002782</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1816787.423</v>
@@ -1252,19 +1249,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,34 +1281,34 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0424286233030574</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.745454545454545</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K11">
-        <v>0.0447244897959184</v>
+        <v>-0.0033234758871701</v>
       </c>
       <c r="L11">
-        <v>0.0033232276332592</v>
+        <v>-0.0401373626373626</v>
       </c>
       <c r="M11">
-        <v>0.09030915399428829</v>
+        <v>0.0367929207521733</v>
       </c>
       <c r="N11">
-        <v>5.45420607267297</v>
+        <v>-0.410305665082735</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
         <v>46</v>
@@ -1323,19 +1320,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,43 +1346,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.266140137664225</v>
+        <v>0.593168142116604</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.054</v>
+        <v>0.048</v>
       </c>
       <c r="K12">
-        <v>0.0017392857142857</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="L12">
-        <v>-0.0039235727780974</v>
+        <v>-0.0051262835677008</v>
       </c>
       <c r="M12">
-        <v>0.0081941951089811</v>
+        <v>0.0024924220411039</v>
       </c>
       <c r="N12">
-        <v>3.22089947089947</v>
+        <v>-0.696829212454213</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>1816787.423</v>
@@ -1394,19 +1391,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,43 +1417,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.187886755640862</v>
+        <v>0.153538056448868</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.963636363636364</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.800000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K13">
-        <v>0.668956043956044</v>
+        <v>0.322650103519669</v>
       </c>
       <c r="L13">
-        <v>-0.637138980095148</v>
+        <v>-1.00096571890493</v>
       </c>
       <c r="M13">
-        <v>2.69597881730471</v>
+        <v>2.66724546943796</v>
       </c>
       <c r="N13">
-        <v>6.82608208118412</v>
+        <v>3.63754344441566</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13">
         <v>1816787.423</v>
@@ -1465,19 +1462,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,34 +1494,34 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0004808024467409</v>
+        <v>0.0003020138020769</v>
       </c>
       <c r="G14">
-        <v>0.0192307692307692</v>
+        <v>0.0206185567010309</v>
       </c>
       <c r="H14">
-        <v>0.653846153846154</v>
+        <v>0.670103092783505</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.495</v>
+        <v>0.38</v>
       </c>
       <c r="K14">
-        <v>-0.0825927749763631</v>
+        <v>-0.078418268693038</v>
       </c>
       <c r="L14">
-        <v>-0.130313811756635</v>
+        <v>-0.134147276242203</v>
       </c>
       <c r="M14">
-        <v>-0.0373272439410338</v>
+        <v>-0.0350115955473098</v>
       </c>
       <c r="N14">
-        <v>-16.685409086134</v>
+        <v>-20.6363864981679</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
         <v>47</v>
@@ -1536,19 +1533,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" t="s">
         <v>55</v>
-      </c>
-      <c r="W14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1565,40 +1562,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.169263456209545</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.869565217391304</v>
+        <v>0.878260869565217</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.2</v>
+        <v>10.34</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>-0.0289737470635835</v>
       </c>
       <c r="L15">
-        <v>-0.0427795194162359</v>
+        <v>-0.0549314621099128</v>
       </c>
       <c r="M15">
-        <v>0.0380882506711504</v>
+        <v>0.0179552835006516</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-0.280210319763864</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>1816787.423</v>
@@ -1607,19 +1604,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.373806016235758</v>
+        <v>0.530859424825733</v>
       </c>
       <c r="G16">
-        <v>0.0521739130434783</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="H16">
-        <v>0.295652173913043</v>
+        <v>0.28695652173913</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1657,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0004141156462585</v>
+        <v>-0.0005051144325661</v>
       </c>
       <c r="M16">
-        <v>0.0006118791112494</v>
+        <v>0.0004730496304292</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q16">
         <v>1816787.423</v>
@@ -1678,19 +1675,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,37 +1707,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.0293293105707281</v>
+        <v>0.264540547124578</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.780701754385965</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>235.5</v>
+        <v>230</v>
       </c>
       <c r="K17">
-        <v>13.2939035486806</v>
+        <v>4.20756589651806</v>
       </c>
       <c r="L17">
-        <v>1.60056783673935</v>
+        <v>-6.43920501648643</v>
       </c>
       <c r="M17">
-        <v>33.5129567492618</v>
+        <v>16.4526915915857</v>
       </c>
       <c r="N17">
-        <v>5.64496965973699</v>
+        <v>1.82937647674698</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q17">
         <v>1816787.423</v>
@@ -1749,19 +1746,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1778,41 +1775,41 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>0.209760295562662</v>
+        <v>0.08495013459083969</v>
       </c>
       <c r="G18">
-        <v>0.110091743119266</v>
+        <v>0.073394495412844</v>
       </c>
       <c r="H18">
-        <v>0.889908256880734</v>
+        <v>0.926605504587156</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0520235107878972</v>
+        <v>0.0605375416287082</v>
       </c>
       <c r="K18">
-        <v>0.0011718158144606</v>
+        <v>0.0022280918347034</v>
       </c>
       <c r="L18">
-        <v>-0.0012101395046613</v>
+        <v>-0.00030469410006</v>
       </c>
       <c r="M18">
-        <v>0.0037713432076086</v>
+        <v>0.0047205991037367</v>
       </c>
       <c r="N18">
-        <v>2.25247353881636</v>
+        <v>3.68051257906859</v>
       </c>
       <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
         <v>39</v>
       </c>
-      <c r="P18" t="s">
-        <v>42</v>
-      </c>
       <c r="Q18">
         <v>1816787.423</v>
       </c>
@@ -1820,19 +1817,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,13 +1849,13 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.983172805569394</v>
+        <v>0.999774241828233</v>
       </c>
       <c r="G19">
         <v>0.008695652173913</v>
       </c>
       <c r="H19">
-        <v>0.31304347826087</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1867,22 +1864,22 @@
         <v>0.012</v>
       </c>
       <c r="K19">
-        <v>-0.0004993279042386001</v>
+        <v>-0.000748974709501</v>
       </c>
       <c r="L19">
-        <v>-0.0008531854974008</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="N19">
-        <v>-4.16106586865515</v>
+        <v>-6.24145591250854</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q19">
         <v>1816787.423</v>
@@ -1891,19 +1888,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,37 +1920,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.191041516598628</v>
+        <v>0.9139875185419229</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.956521739130435</v>
+        <v>0.947826086956522</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.436</v>
+        <v>0.42</v>
       </c>
       <c r="K20">
-        <v>0.0050881726955827</v>
+        <v>-0.0073471133011698</v>
       </c>
       <c r="L20">
-        <v>-0.0049940382050651</v>
+        <v>-0.0175402198599799</v>
       </c>
       <c r="M20">
-        <v>0.0145684459922321</v>
+        <v>0.001334105701442</v>
       </c>
       <c r="N20">
-        <v>1.16701208614283</v>
+        <v>-1.74931269075471</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1816787.423</v>
@@ -1962,19 +1959,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.253820367166759</v>
+        <v>0.584250406162734</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2006,25 +2003,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.71</v>
+        <v>7.69</v>
       </c>
       <c r="K21">
-        <v>-0.0052572867938107</v>
+        <v>0.0011543931731984</v>
       </c>
       <c r="L21">
-        <v>-0.0202007790524784</v>
+        <v>-0.0112896011181617</v>
       </c>
       <c r="M21">
-        <v>0.008315930213645999</v>
+        <v>0.0144575386829795</v>
       </c>
       <c r="N21">
-        <v>-0.0681878961583752</v>
+        <v>0.0150116147360008</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q21">
         <v>1816787.423</v>
@@ -2033,16 +2030,16 @@
         <v>5524193.555</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2062,37 +2059,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.222193361132969</v>
+        <v>0.885287030270783</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.869565217391304</v>
+        <v>0.852173913043478</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.57</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K22">
-        <v>0.0068441924549855</v>
+        <v>-0.0080520850611652</v>
       </c>
       <c r="L22">
-        <v>-0.0070555733863539</v>
+        <v>-0.0177333065864652</v>
       </c>
       <c r="M22">
-        <v>0.0178409040918035</v>
+        <v>0.0040431148683471</v>
       </c>
       <c r="N22">
-        <v>1.20073551841852</v>
+        <v>-1.43021049043787</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1816787.423</v>
@@ -2101,19 +2098,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,13 +2130,13 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0064494369675408</v>
+        <v>0.371448620324073</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.695652173913043</v>
+        <v>0.6434782608695651</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2148,22 +2145,22 @@
         <v>0.82</v>
       </c>
       <c r="K23">
-        <v>0.0181896697628553</v>
+        <v>0.002647716469858</v>
       </c>
       <c r="L23">
-        <v>0.0050155950569857</v>
+        <v>-0.009986329460013601</v>
       </c>
       <c r="M23">
-        <v>0.0294747262141797</v>
+        <v>0.0129031966470245</v>
       </c>
       <c r="N23">
-        <v>2.21825241010431</v>
+        <v>0.322892252421711</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1816787.423</v>
@@ -2172,19 +2169,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,34 +2201,34 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.0373885100141737</v>
+        <v>0.407288735950985</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.634782608695652</v>
+        <v>0.617391304347826</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="K24">
-        <v>0.0017992610837438</v>
+        <v>0.0001465690208667</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0011405152224824</v>
       </c>
       <c r="M24">
-        <v>0.0036083754900147</v>
+        <v>0.0016577938845563</v>
       </c>
       <c r="N24">
-        <v>3.6719613953956</v>
+        <v>0.305352126805779</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
         <v>46</v>
@@ -2243,19 +2240,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.0055536730349822</v>
+        <v>0.0451801380190733</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2287,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.59</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K25">
-        <v>0.841468285004469</v>
+        <v>0.252169995657838</v>
       </c>
       <c r="L25">
-        <v>0.122680593024859</v>
+        <v>0.0012695234874191</v>
       </c>
       <c r="M25">
-        <v>1.80258574927168</v>
+        <v>1.00718938563749</v>
       </c>
       <c r="N25">
-        <v>9.795905529737709</v>
+        <v>3.01278369961574</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1816787.423</v>
@@ -2314,19 +2311,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2343,16 +2340,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26">
-        <v>7.62957399036424E-07</v>
+        <v>2.8985737032805E-08</v>
       </c>
       <c r="G26">
-        <v>0.0133333333333333</v>
+        <v>0.0206896551724138</v>
       </c>
       <c r="H26">
-        <v>0.58</v>
+        <v>0.606896551724138</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2361,19 +2358,19 @@
         <v>0.9</v>
       </c>
       <c r="K26">
-        <v>-0.0733500684618896</v>
+        <v>-0.09069132653061231</v>
       </c>
       <c r="L26">
-        <v>-0.107915944038426</v>
+        <v>-0.125891343226135</v>
       </c>
       <c r="M26">
-        <v>-0.0461897960510026</v>
+        <v>-0.0574181270352297</v>
       </c>
       <c r="N26">
-        <v>-8.150007606876621</v>
+        <v>-10.0768140589569</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" t="s">
         <v>47</v>
@@ -2385,19 +2382,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" t="s">
         <v>55</v>
-      </c>
-      <c r="W26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,7 +2414,7 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.020074072614254</v>
+        <v>0.069596000727186</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2429,25 +2426,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.37</v>
+        <v>10.34</v>
       </c>
       <c r="K27">
-        <v>-0.0347857142857144</v>
+        <v>-0.0277473907101674</v>
       </c>
       <c r="L27">
-        <v>-0.0589649930199437</v>
+        <v>-0.0470960668796439</v>
       </c>
       <c r="M27">
-        <v>-0.0074419034582574</v>
+        <v>0.0015552296222318</v>
       </c>
       <c r="N27">
-        <v>-0.335445653671306</v>
+        <v>-0.268350006868157</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1816787.423</v>
@@ -2456,19 +2453,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2485,40 +2482,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>0.657559790551055</v>
+        <v>0.529968267569667</v>
       </c>
       <c r="G28">
-        <v>0.0517241379310345</v>
+        <v>0.0459770114942529</v>
       </c>
       <c r="H28">
-        <v>0.206896551724138</v>
+        <v>0.195402298850575</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.000332347588717</v>
+        <v>-0.0002499333539582</v>
       </c>
       <c r="M28">
-        <v>0.0001425844026632</v>
+        <v>0.0001894225334568</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1816787.423</v>
@@ -2527,19 +2524,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,37 +2556,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.129989405630825</v>
+        <v>0.247403086793415</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.774566473988439</v>
+        <v>0.815028901734104</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K29">
-        <v>4.71719656032174</v>
+        <v>2.45982921605818</v>
       </c>
       <c r="L29">
-        <v>-2.2896777490106</v>
+        <v>-4.08369263867979</v>
       </c>
       <c r="M29">
-        <v>12.5638697936484</v>
+        <v>9.463743302951251</v>
       </c>
       <c r="N29">
-        <v>2.04207643303971</v>
+        <v>1.06949096350356</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q29">
         <v>1816787.423</v>
@@ -2598,19 +2595,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,7 +2627,7 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>0.295004349602933</v>
+        <v>0.187411912783233</v>
       </c>
       <c r="G30">
         <v>0.0838323353293413</v>
@@ -2642,25 +2639,25 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.0562517629515717</v>
+        <v>0.0591561694095074</v>
       </c>
       <c r="K30">
-        <v>0.0003394276657552</v>
+        <v>0.00068023727178</v>
       </c>
       <c r="L30">
-        <v>-0.0010655734935873</v>
+        <v>-0.0007567880485690001</v>
       </c>
       <c r="M30">
-        <v>0.0018691453906357</v>
+        <v>0.0022998865345298</v>
       </c>
       <c r="N30">
-        <v>0.6034080497130681</v>
+        <v>1.14990081097222</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q30">
         <v>1816787.423</v>
@@ -2669,19 +2666,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2701,13 +2698,13 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.14243101921373</v>
+        <v>0.190891756442867</v>
       </c>
       <c r="G31">
-        <v>0.0548780487804878</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H31">
-        <v>0.23780487804878</v>
+        <v>0.229885057471264</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2716,22 +2713,22 @@
         <v>0.011</v>
       </c>
       <c r="K31">
-        <v>0.0001995356459983</v>
+        <v>8.30871078549098E-05</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0004164558540418</v>
+        <v>0.0003329818926812</v>
       </c>
       <c r="N31">
-        <v>1.81396041816692</v>
+        <v>0.755337344135543</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q31">
         <v>1816787.423</v>
@@ -2740,19 +2737,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,37 +2769,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.493487325699261</v>
+        <v>0.955906636898465</v>
       </c>
       <c r="G32">
-        <v>0.0060975609756097</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H32">
-        <v>0.920731707317073</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.4455</v>
+        <v>0.4265</v>
       </c>
       <c r="K32">
-        <v>2.22036474164233E-05</v>
+        <v>-0.0054755884954087</v>
       </c>
       <c r="L32">
-        <v>-0.0070151219711238</v>
+        <v>-0.0110109867628049</v>
       </c>
       <c r="M32">
-        <v>0.0056473850545313</v>
+        <v>-0.0001663551626202</v>
       </c>
       <c r="N32">
-        <v>0.0049839837073901</v>
+        <v>-1.28384255460931</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q32">
         <v>1816787.423</v>
@@ -2811,19 +2808,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2843,37 +2840,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.970669333998567</v>
+        <v>0.357547522322484</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.5491329479768789</v>
+        <v>0.520231213872832</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.69</v>
+        <v>7.71</v>
       </c>
       <c r="K33">
-        <v>0.0130446428571428</v>
+        <v>-0.0017135866048317</v>
       </c>
       <c r="L33">
-        <v>0.0014455696280805</v>
+        <v>-0.012248490945674</v>
       </c>
       <c r="M33">
-        <v>0.0239703103582681</v>
+        <v>0.0075223175598761</v>
       </c>
       <c r="N33">
-        <v>0.169631246516812</v>
+        <v>-0.0222255071962619</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1816787.423</v>
@@ -2882,16 +2879,16 @@
         <v>5524193.555</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,7 +2908,7 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.749563856894327</v>
+        <v>0.6996993977610479</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2923,25 +2920,25 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.5705</v>
+        <v>0.56005</v>
       </c>
       <c r="K34">
-        <v>-0.0033341280534751</v>
+        <v>-0.0022896540959041</v>
       </c>
       <c r="L34">
-        <v>-0.0099782853795205</v>
+        <v>-0.008715936000680999</v>
       </c>
       <c r="M34">
-        <v>0.0041074318850032</v>
+        <v>0.0041086877699555</v>
       </c>
       <c r="N34">
-        <v>-0.584422095262961</v>
+        <v>-0.408830300134648</v>
       </c>
       <c r="O34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1816787.423</v>
@@ -2950,19 +2947,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2979,40 +2976,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.511937123148164</v>
+        <v>0.5179003423583119</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.64367816091954</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.835</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.0001661737943585</v>
       </c>
       <c r="L35">
-        <v>-0.0089963054187192</v>
+        <v>-0.008523779976798899</v>
       </c>
       <c r="M35">
-        <v>0.0066412330744126</v>
+        <v>0.0058220858005935</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-0.0203894226206758</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q35">
         <v>1816787.423</v>
@@ -3021,19 +3018,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,38 +3050,38 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0316484254321635</v>
+        <v>0.0840613532906786</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.517241379310345</v>
+        <v>0.511494252873563</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="K36">
-        <v>0.0008321962385206</v>
+        <v>0.0004983230849915</v>
       </c>
       <c r="L36">
-        <v>8.56085302859368E-05</v>
+        <v>-0.0001089591152112</v>
       </c>
       <c r="M36">
-        <v>0.0016207644296936</v>
+        <v>0.001068434048228</v>
       </c>
       <c r="N36">
-        <v>1.73374216358467</v>
+        <v>1.06026188296077</v>
       </c>
       <c r="O36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" t="s">
         <v>39</v>
       </c>
-      <c r="P36" t="s">
-        <v>46</v>
-      </c>
       <c r="Q36">
         <v>1816787.423</v>
       </c>
@@ -3092,19 +3089,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3124,7 +3121,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.188797847726258</v>
+        <v>0.428781183665584</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3136,25 +3133,25 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>8.18</v>
+        <v>7.625</v>
       </c>
       <c r="K37">
-        <v>0.102605934361691</v>
+        <v>0.0196686902581836</v>
       </c>
       <c r="L37">
-        <v>-0.0599417949230566</v>
+        <v>-0.100718460730292</v>
       </c>
       <c r="M37">
-        <v>0.381275455597257</v>
+        <v>0.197163276155448</v>
       </c>
       <c r="N37">
-        <v>1.25435127581529</v>
+        <v>0.2579500361729</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1816787.423</v>
@@ -3163,19 +3160,19 @@
         <v>5524193.555</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
